--- a/data_output/prism_passive/all_passive_out_length_msc_GM_Fuku_trial_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_msc_GM_Fuku_trial_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>64.328001105659567</v>
+        <v>64.328001108765704</v>
       </c>
       <c r="C2">
-        <v>66.972073869018828</v>
+        <v>66.972073851218781</v>
       </c>
       <c r="D2">
-        <v>55.882731825832224</v>
+        <v>55.882731818439382</v>
       </c>
       <c r="E2">
-        <v>71.607593442229145</v>
+        <v>71.607593451844153</v>
       </c>
       <c r="F2">
-        <v>44.728398765965899</v>
+        <v>44.728398766139925</v>
       </c>
       <c r="G2">
-        <v>56.331081369083215</v>
+        <v>56.331081348289679</v>
       </c>
       <c r="H2">
-        <v>48.759155595982612</v>
+        <v>48.759155564125543</v>
       </c>
       <c r="I2">
-        <v>57.708629468269642</v>
+        <v>57.708629471939723</v>
       </c>
       <c r="J2">
-        <v>69.309971112379799</v>
+        <v>69.30997111616</v>
       </c>
       <c r="K2">
-        <v>54.875440468484761</v>
+        <v>54.875440458526633</v>
       </c>
       <c r="L2">
-        <v>52.251852211360024</v>
+        <v>52.251852155964954</v>
       </c>
       <c r="M2">
-        <v>65.00237625012474</v>
+        <v>65.002376221698782</v>
       </c>
       <c r="N2">
-        <v>61.449514813768808</v>
+        <v>61.44951479190253</v>
       </c>
       <c r="O2">
-        <v>49.846522853700755</v>
+        <v>49.846522874245437</v>
       </c>
       <c r="P2">
-        <v>57.86123335547174</v>
+        <v>57.861233331506597</v>
       </c>
       <c r="Q2">
-        <v>61.500274103560088</v>
+        <v>61.500274095658909</v>
       </c>
       <c r="R2">
-        <v>54.726252430784832</v>
+        <v>54.726252459006133</v>
       </c>
       <c r="S2">
-        <v>81.442576603333677</v>
+        <v>81.442576442471918</v>
       </c>
       <c r="T2">
-        <v>62.427337777981101</v>
+        <v>62.427337784586882</v>
       </c>
       <c r="U2">
-        <v>59.115806688196898</v>
+        <v>59.115806674657208</v>
       </c>
       <c r="V2">
-        <v>51.067209101752567</v>
+        <v>51.067209099774892</v>
       </c>
       <c r="W2">
-        <v>46.826672953732263</v>
+        <v>46.826672852379637</v>
       </c>
       <c r="X2">
-        <v>57.179409580653179</v>
+        <v>57.179409587721572</v>
       </c>
       <c r="Y2">
-        <v>61.381334475696448</v>
+        <v>61.381334461670725</v>
       </c>
       <c r="Z2">
-        <v>59.231979170863326</v>
+        <v>59.231979150835585</v>
       </c>
       <c r="AA2">
-        <v>79.162261145204823</v>
+        <v>79.162261227227631</v>
       </c>
       <c r="AB2">
-        <v>79.088701438672345</v>
+        <v>79.088701388111502</v>
       </c>
       <c r="AC2">
-        <v>52.855470808302329</v>
+        <v>52.855470773954082</v>
       </c>
       <c r="AD2">
-        <v>78.832933270719394</v>
+        <v>78.832933225868359</v>
       </c>
       <c r="AE2">
-        <v>52.221106138096481</v>
+        <v>52.22110613596017</v>
       </c>
       <c r="AF2">
-        <v>59.540842343333551</v>
+        <v>59.540842312254156</v>
       </c>
       <c r="AG2">
-        <v>54.431103915663179</v>
+        <v>54.431103873234747</v>
       </c>
       <c r="AH2">
-        <v>61.954318679741718</v>
+        <v>61.954318656970472</v>
       </c>
       <c r="AI2">
-        <v>81.115275076630866</v>
+        <v>81.115274904563549</v>
       </c>
       <c r="AJ2">
-        <v>56.957415959813289</v>
+        <v>56.957415924098406</v>
       </c>
       <c r="AK2">
-        <v>61.008875793368048</v>
+        <v>61.008875773087141</v>
       </c>
       <c r="AL2">
-        <v>71.497264174143297</v>
+        <v>71.497264134083863</v>
       </c>
       <c r="AM2">
-        <v>65.197813197986747</v>
+        <v>65.197813094466525</v>
       </c>
       <c r="AN2">
-        <v>52.598329469056125</v>
+        <v>52.598329430698286</v>
       </c>
       <c r="AO2">
-        <v>66.616032807540833</v>
+        <v>66.616032929402877</v>
       </c>
       <c r="AP2">
-        <v>66.528342904613254</v>
+        <v>66.528342874771624</v>
       </c>
       <c r="AQ2">
-        <v>58.511394867758348</v>
+        <v>58.511394789979718</v>
       </c>
       <c r="AR2">
-        <v>82.060420049487675</v>
+        <v>82.060420097122744</v>
       </c>
       <c r="AS2">
-        <v>73.998143790855124</v>
+        <v>73.998143712512203</v>
       </c>
       <c r="AT2">
-        <v>68.231567877043759</v>
+        <v>68.231567963235719</v>
       </c>
       <c r="AU2">
-        <v>57.73026210379944</v>
+        <v>57.730262043434251</v>
       </c>
       <c r="AV2">
-        <v>61.983037765413854</v>
+        <v>61.983037799380789</v>
       </c>
       <c r="AW2">
-        <v>56.290455934721479</v>
+        <v>56.290455828351206</v>
       </c>
       <c r="AX2">
-        <v>70.388346161206471</v>
+        <v>70.388346103363219</v>
       </c>
       <c r="AY2">
-        <v>68.323496691113263</v>
+        <v>68.323496649281694</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>68.633534956696863</v>
+        <v>68.633534813138965</v>
       </c>
       <c r="C3">
-        <v>61.644246582310949</v>
+        <v>61.64424657311389</v>
       </c>
       <c r="D3">
-        <v>58.719491512831318</v>
+        <v>58.719491432350488</v>
       </c>
       <c r="E3">
-        <v>66.329527599908175</v>
+        <v>66.329527583612588</v>
       </c>
       <c r="F3">
-        <v>43.136066419470723</v>
+        <v>43.136066399879894</v>
       </c>
       <c r="G3">
-        <v>61.547051975009623</v>
+        <v>61.547051958611974</v>
       </c>
       <c r="H3">
-        <v>44.81420387978153</v>
+        <v>44.814203889684087</v>
       </c>
       <c r="I3">
-        <v>61.830062472614358</v>
+        <v>61.830062459500944</v>
       </c>
       <c r="J3">
-        <v>74.830664421013026</v>
+        <v>74.830664375081724</v>
       </c>
       <c r="K3">
-        <v>66.460946757836695</v>
+        <v>66.460946752333371</v>
       </c>
       <c r="L3">
-        <v>58.716786022645962</v>
+        <v>58.716785997056363</v>
       </c>
       <c r="M3">
-        <v>66.914497188601615</v>
+        <v>66.914086921052316</v>
       </c>
       <c r="N3">
-        <v>63.221206627266028</v>
+        <v>63.221206623705854</v>
       </c>
       <c r="O3">
-        <v>39.056757140452362</v>
+        <v>39.056757138322205</v>
       </c>
       <c r="P3">
-        <v>63.671898896230452</v>
+        <v>63.671898857280063</v>
       </c>
       <c r="Q3">
-        <v>55.196734528401159</v>
+        <v>55.19673449466282</v>
       </c>
       <c r="R3">
-        <v>49.233292822328565</v>
+        <v>49.233292716779907</v>
       </c>
       <c r="S3">
-        <v>74.562308137640272</v>
+        <v>74.562308107092903</v>
       </c>
       <c r="T3">
-        <v>64.136790911946861</v>
+        <v>64.136790885466482</v>
       </c>
       <c r="U3">
-        <v>61.866249933104349</v>
+        <v>61.866249904566942</v>
       </c>
       <c r="V3">
-        <v>53.89311405377061</v>
+        <v>53.893114060657993</v>
       </c>
       <c r="W3">
-        <v>50.461476958864978</v>
+        <v>50.461476915054135</v>
       </c>
       <c r="X3">
-        <v>50.400843669896958</v>
+        <v>50.400843655994848</v>
       </c>
       <c r="Y3">
-        <v>70.410876706657788</v>
+        <v>70.41087666310051</v>
       </c>
       <c r="Z3">
-        <v>65.301690054574934</v>
+        <v>65.301690035185786</v>
       </c>
       <c r="AA3">
-        <v>75.492288917445649</v>
+        <v>75.492288933982394</v>
       </c>
       <c r="AB3">
-        <v>72.906305684383071</v>
+        <v>72.906305638395878</v>
       </c>
       <c r="AC3">
-        <v>60.941654774556412</v>
+        <v>60.941654684099177</v>
       </c>
       <c r="AD3">
-        <v>80.089134578332931</v>
+        <v>80.08913445736134</v>
       </c>
       <c r="AE3">
-        <v>54.553906047598339</v>
+        <v>54.553905958079163</v>
       </c>
       <c r="AF3">
-        <v>64.716641055180489</v>
+        <v>64.716640993522802</v>
       </c>
       <c r="AG3">
-        <v>56.339934265320259</v>
+        <v>56.339934229078196</v>
       </c>
       <c r="AH3">
-        <v>72.69500258289267</v>
+        <v>72.695002553795973</v>
       </c>
       <c r="AI3">
-        <v>97.817943631166756</v>
+        <v>97.817942581135384</v>
       </c>
       <c r="AJ3">
-        <v>65.862280052148378</v>
+        <v>65.862279976196945</v>
       </c>
       <c r="AK3">
-        <v>68.852251227710497</v>
+        <v>68.852251070614145</v>
       </c>
       <c r="AL3">
-        <v>70.162060195583322</v>
+        <v>70.162060133113513</v>
       </c>
       <c r="AM3">
-        <v>74.969337673995213</v>
+        <v>74.969337591465788</v>
       </c>
       <c r="AN3">
-        <v>48.407158716779399</v>
+        <v>48.407158697910013</v>
       </c>
       <c r="AO3">
-        <v>72.802105971553061</v>
+        <v>72.802105793401395</v>
       </c>
       <c r="AP3">
-        <v>57.628097470207813</v>
+        <v>57.628097435473052</v>
       </c>
       <c r="AQ3">
-        <v>54.348261658465113</v>
+        <v>54.348261619828122</v>
       </c>
       <c r="AR3">
-        <v>83.954395696970636</v>
+        <v>83.954395744013723</v>
       </c>
       <c r="AS3">
-        <v>64.007998814167749</v>
+        <v>64.00799883075355</v>
       </c>
       <c r="AT3">
-        <v>67.204759914459359</v>
+        <v>67.204759841673976</v>
       </c>
       <c r="AU3">
-        <v>55.628830367100598</v>
+        <v>55.628830270155362</v>
       </c>
       <c r="AV3">
-        <v>55.612173345948477</v>
+        <v>55.612173253656287</v>
       </c>
       <c r="AW3">
-        <v>59.673688855208852</v>
+        <v>59.673688051557725</v>
       </c>
       <c r="AX3">
-        <v>62.323002441076085</v>
+        <v>62.323002247094912</v>
       </c>
       <c r="AY3">
-        <v>75.94693418607234</v>
+        <v>75.9469341444279</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_length_msc_GM_Fuku_trial_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_msc_GM_Fuku_trial_max.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,62 +401,59 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>64.328001108765704</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>66.972073851218781</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>55.882731818439382</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>71.607593451844153</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>44.728398766139925</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>56.331081348289679</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>48.759155564125543</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>57.708629471939723</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>69.30997111616</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>54.875440458526633</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>52.251852155964954</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>65.002376221698782</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>61.44951479190253</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>49.846522874245437</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>57.861233331506597</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>61.500274095658909</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>54.726252459006133</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>81.442576442471918</v>
+        <v>73.273541611812576</v>
       </c>
       <c r="T2">
         <v>62.427337784586882</v>
@@ -588,55 +477,55 @@
         <v>59.231979150835585</v>
       </c>
       <c r="AA2">
-        <v>79.162261227227631</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>79.088701388111502</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>52.855470773954082</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>78.832933225868359</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>52.22110613596017</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>59.540842312254156</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>54.431103873234747</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>61.954318656970472</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>81.115274904563549</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>56.957415924098406</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>61.008875773087141</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>71.497264134083863</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>65.197813094466525</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>52.598329430698286</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>66.616032929402877</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>66.528342874771624</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>58.511394789979718</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>82.060420097122744</v>
@@ -664,59 +553,56 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>68.633534813138965</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>61.64424657311389</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>58.719491432350488</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>66.329527583612588</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>43.136066399879894</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>61.547051958611974</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>44.814203889684087</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>61.830062459500944</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>74.830664375081724</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>66.460946752333371</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>58.716785997056363</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>66.914086921052316</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>63.221206623705854</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>39.056757138322205</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>63.671898857280063</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>55.19673449466282</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>49.233292716779907</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>74.562308107092903</v>
@@ -743,55 +629,55 @@
         <v>65.301690035185786</v>
       </c>
       <c r="AA3">
-        <v>75.492288933982394</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>72.906305638395878</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>60.941654684099177</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>80.08913445736134</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>54.553905958079163</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>64.716640993522802</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>56.339934229078196</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>72.695002553795973</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>97.817942581135384</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>65.862279976196945</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>68.852251070614145</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>70.162060133113513</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>74.969337591465788</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>48.407158697910013</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>72.802105793401395</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>57.628097435473052</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>54.348261619828122</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>83.954395744013723</v>

--- a/data_output/prism_passive/all_passive_out_length_msc_GM_Fuku_trial_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_msc_GM_Fuku_trial_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>64.328001105659567</v>
+        <v>49.846522874245437</v>
       </c>
       <c r="C2">
-        <v>64.668101417083761</v>
+        <v>54.726252459006133</v>
       </c>
       <c r="D2">
-        <v>55.882731825832224</v>
+        <v>52.598329430698286</v>
       </c>
       <c r="E2">
-        <v>71.607593442229145</v>
+        <v>58.511394789979718</v>
       </c>
       <c r="F2">
         <v>44.728398765965899</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>68.633534956696863</v>
+        <v>44.659973050356776</v>
       </c>
       <c r="C3">
-        <v>61.644246582310949</v>
+        <v>49.233292716779907</v>
       </c>
       <c r="D3">
-        <v>58.719491512831318</v>
+        <v>50.060005343044153</v>
       </c>
       <c r="E3">
-        <v>66.329527599908175</v>
+        <v>54.754144567851213</v>
       </c>
       <c r="F3">
         <v>43.136066419470723</v>

--- a/data_output/prism_passive/all_passive_out_length_msc_GM_Fuku_trial_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_msc_GM_Fuku_trial_max.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>64.328001105659567</v>
+        <v>60.780713310805943</v>
       </c>
       <c r="C2">
-        <v>64.668101417083761</v>
+        <v>49.846522874245437</v>
       </c>
       <c r="D2">
-        <v>55.882731825832224</v>
+        <v>65.197813094466525</v>
       </c>
       <c r="E2">
-        <v>71.607593442229145</v>
+        <v>52.598329430698286</v>
       </c>
       <c r="F2">
         <v>44.728398765965899</v>
@@ -670,16 +665,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>68.633534956696863</v>
+        <v>63.221206623705854</v>
       </c>
       <c r="C3">
-        <v>61.644246582310949</v>
+        <v>44.659973050356776</v>
       </c>
       <c r="D3">
-        <v>58.719491512831318</v>
+        <v>74.969337591465788</v>
       </c>
       <c r="E3">
-        <v>71.547073364370974</v>
+        <v>50.060005343044153</v>
       </c>
       <c r="F3">
         <v>43.136066419470723</v>

--- a/data_output/prism_passive/all_passive_out_length_msc_GM_Fuku_trial_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_msc_GM_Fuku_trial_max.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,151 +513,151 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>64.328001108765704</v>
+      </c>
+      <c r="C2">
+        <v>64.668101347654769</v>
+      </c>
+      <c r="D2">
+        <v>55.882731818439382</v>
+      </c>
+      <c r="E2">
+        <v>71.607593451844153</v>
+      </c>
+      <c r="F2">
+        <v>44.728398766139925</v>
+      </c>
+      <c r="G2">
+        <v>60.377829665501096</v>
+      </c>
+      <c r="H2">
+        <v>48.759155564125543</v>
+      </c>
+      <c r="I2">
+        <v>61.961281905262183</v>
+      </c>
+      <c r="J2">
+        <v>69.30997111616</v>
+      </c>
+      <c r="K2">
+        <v>54.875440458526633</v>
+      </c>
+      <c r="L2">
+        <v>55.239208615852185</v>
+      </c>
+      <c r="M2">
+        <v>71.693511942908742</v>
+      </c>
+      <c r="N2">
         <v>60.780713310805943</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>49.846522874245437</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>59.258126146645708</v>
+      </c>
+      <c r="Q2">
+        <v>61.500274095658909</v>
+      </c>
+      <c r="R2">
+        <v>54.726252459006133</v>
+      </c>
+      <c r="T2">
+        <v>59.637969058801453</v>
+      </c>
+      <c r="U2">
+        <v>59.115806674657208</v>
+      </c>
+      <c r="V2">
+        <v>54.38633229763667</v>
+      </c>
+      <c r="W2">
+        <v>46.826672852379637</v>
+      </c>
+      <c r="X2">
+        <v>57.179409587721572</v>
+      </c>
+      <c r="Y2">
+        <v>61.381334461670725</v>
+      </c>
+      <c r="Z2">
+        <v>59.231979150835585</v>
+      </c>
+      <c r="AA2">
+        <v>79.162261227227631</v>
+      </c>
+      <c r="AB2">
+        <v>79.088701388111502</v>
+      </c>
+      <c r="AC2">
+        <v>52.855470773954082</v>
+      </c>
+      <c r="AD2">
+        <v>78.832933225868359</v>
+      </c>
+      <c r="AE2">
+        <v>52.22110613596017</v>
+      </c>
+      <c r="AF2">
+        <v>59.540842312254156</v>
+      </c>
+      <c r="AG2">
+        <v>54.431103873234747</v>
+      </c>
+      <c r="AH2">
+        <v>61.954318656970472</v>
+      </c>
+      <c r="AI2">
+        <v>81.115274904563549</v>
+      </c>
+      <c r="AJ2">
+        <v>56.957415924098406</v>
+      </c>
+      <c r="AK2">
+        <v>61.008875773087141</v>
+      </c>
+      <c r="AL2">
+        <v>71.497264134083863</v>
+      </c>
+      <c r="AM2">
         <v>65.197813094466525</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>52.598329430698286</v>
       </c>
-      <c r="F2">
-        <v>44.728398765965899</v>
-      </c>
-      <c r="G2">
-        <v>60.377829726467148</v>
-      </c>
-      <c r="H2">
-        <v>48.759155595982612</v>
-      </c>
-      <c r="I2">
-        <v>61.961281894951213</v>
-      </c>
-      <c r="J2">
-        <v>69.309971112379799</v>
-      </c>
-      <c r="K2">
-        <v>54.875440468484761</v>
-      </c>
-      <c r="L2">
-        <v>55.239208937732812</v>
-      </c>
-      <c r="M2">
-        <v>71.693511950966723</v>
-      </c>
-      <c r="N2">
-        <v>60.780713343411819</v>
-      </c>
-      <c r="O2">
-        <v>49.846522853700755</v>
-      </c>
-      <c r="P2">
-        <v>59.258126184798009</v>
-      </c>
-      <c r="Q2">
-        <v>61.500274103560088</v>
-      </c>
-      <c r="R2">
-        <v>54.726252430784832</v>
-      </c>
-      <c r="T2">
-        <v>59.637969051539329</v>
-      </c>
-      <c r="U2">
-        <v>59.115806688196898</v>
-      </c>
-      <c r="V2">
-        <v>54.386332305806654</v>
-      </c>
-      <c r="W2">
-        <v>46.826672953732263</v>
-      </c>
-      <c r="X2">
-        <v>57.179409580653179</v>
-      </c>
-      <c r="Y2">
-        <v>61.381334475696448</v>
-      </c>
-      <c r="Z2">
-        <v>59.231979170863326</v>
-      </c>
-      <c r="AA2">
-        <v>79.162261145204823</v>
-      </c>
-      <c r="AB2">
-        <v>79.088701438672345</v>
-      </c>
-      <c r="AC2">
-        <v>52.855470808302329</v>
-      </c>
-      <c r="AD2">
-        <v>78.832933270719394</v>
-      </c>
-      <c r="AE2">
-        <v>52.221106138096481</v>
-      </c>
-      <c r="AF2">
-        <v>59.540842343333551</v>
-      </c>
-      <c r="AG2">
-        <v>54.431103915663179</v>
-      </c>
-      <c r="AH2">
-        <v>61.954318679741718</v>
-      </c>
-      <c r="AI2">
-        <v>81.115275076630866</v>
-      </c>
-      <c r="AJ2">
-        <v>56.957415959813289</v>
-      </c>
-      <c r="AK2">
-        <v>61.008875793368048</v>
-      </c>
-      <c r="AL2">
-        <v>71.497264174143297</v>
-      </c>
-      <c r="AM2">
-        <v>65.197813197986747</v>
-      </c>
-      <c r="AN2">
-        <v>52.598329469056125</v>
-      </c>
       <c r="AO2">
-        <v>66.616032807540833</v>
+        <v>66.616032929402877</v>
       </c>
       <c r="AP2">
-        <v>68.670574004626275</v>
+        <v>68.670573965367353</v>
       </c>
       <c r="AQ2">
-        <v>58.511394867758348</v>
+        <v>58.511394789979718</v>
       </c>
       <c r="AR2">
-        <v>82.060420049487675</v>
+        <v>82.060420097122744</v>
       </c>
       <c r="AS2">
-        <v>73.998143790855124</v>
+        <v>73.998143712512203</v>
       </c>
       <c r="AT2">
-        <v>68.231567877043759</v>
+        <v>68.231567963235719</v>
       </c>
       <c r="AU2">
-        <v>51.661027473273343</v>
+        <v>51.661027338524704</v>
       </c>
       <c r="AV2">
-        <v>61.983037765413854</v>
+        <v>61.983037799380789</v>
       </c>
       <c r="AW2">
-        <v>56.290455934721479</v>
+        <v>56.290455828351206</v>
       </c>
       <c r="AX2">
-        <v>70.388346161206471</v>
+        <v>70.388346103363219</v>
       </c>
       <c r="AY2">
-        <v>68.323496691113263</v>
+        <v>68.323496649281694</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -665,154 +665,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>68.633534813138965</v>
+      </c>
+      <c r="C3">
+        <v>61.64424657311389</v>
+      </c>
+      <c r="D3">
+        <v>58.719491432350488</v>
+      </c>
+      <c r="E3">
+        <v>71.54707332841194</v>
+      </c>
+      <c r="F3">
+        <v>43.136066399879894</v>
+      </c>
+      <c r="G3">
+        <v>61.547051958611974</v>
+      </c>
+      <c r="H3">
+        <v>44.814203889684087</v>
+      </c>
+      <c r="I3">
+        <v>61.830062459500944</v>
+      </c>
+      <c r="J3">
+        <v>74.830664375081724</v>
+      </c>
+      <c r="K3">
+        <v>65.435860673152831</v>
+      </c>
+      <c r="L3">
+        <v>58.716785997056363</v>
+      </c>
+      <c r="M3">
+        <v>63.778536206498345</v>
+      </c>
+      <c r="N3">
         <v>63.221206623705854</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>44.659973050356776</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>63.671898857280063</v>
+      </c>
+      <c r="Q3">
+        <v>55.19673449466282</v>
+      </c>
+      <c r="R3">
+        <v>49.233292716779907</v>
+      </c>
+      <c r="S3">
+        <v>74.562308107092903</v>
+      </c>
+      <c r="T3">
+        <v>64.136790885466482</v>
+      </c>
+      <c r="U3">
+        <v>61.866249904566942</v>
+      </c>
+      <c r="V3">
+        <v>55.701329712164458</v>
+      </c>
+      <c r="W3">
+        <v>50.491108740687508</v>
+      </c>
+      <c r="X3">
+        <v>50.400843655994848</v>
+      </c>
+      <c r="Y3">
+        <v>70.41087666310051</v>
+      </c>
+      <c r="Z3">
+        <v>65.301690035185786</v>
+      </c>
+      <c r="AA3">
+        <v>75.492288933982394</v>
+      </c>
+      <c r="AB3">
+        <v>72.906305638395878</v>
+      </c>
+      <c r="AC3">
+        <v>60.941654684099177</v>
+      </c>
+      <c r="AD3">
+        <v>80.08913445736134</v>
+      </c>
+      <c r="AE3">
+        <v>54.553905958079163</v>
+      </c>
+      <c r="AF3">
+        <v>64.716640993522802</v>
+      </c>
+      <c r="AG3">
+        <v>56.339934229078196</v>
+      </c>
+      <c r="AH3">
+        <v>72.695002553795973</v>
+      </c>
+      <c r="AI3">
+        <v>75.515119242485866</v>
+      </c>
+      <c r="AJ3">
+        <v>65.862279976196945</v>
+      </c>
+      <c r="AK3">
+        <v>68.852251070614145</v>
+      </c>
+      <c r="AL3">
+        <v>70.162060133113513</v>
+      </c>
+      <c r="AM3">
         <v>74.969337591465788</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>50.060005343044153</v>
       </c>
-      <c r="F3">
-        <v>43.136066419470723</v>
-      </c>
-      <c r="G3">
-        <v>61.547051975009623</v>
-      </c>
-      <c r="H3">
-        <v>44.81420387978153</v>
-      </c>
-      <c r="I3">
-        <v>61.830062472614358</v>
-      </c>
-      <c r="J3">
-        <v>74.830664421013026</v>
-      </c>
-      <c r="K3">
-        <v>65.435860675512288</v>
-      </c>
-      <c r="L3">
-        <v>58.716786022645962</v>
-      </c>
-      <c r="M3">
-        <v>63.778711816687</v>
-      </c>
-      <c r="N3">
-        <v>63.221206627266028</v>
-      </c>
-      <c r="O3">
-        <v>44.659973052140984</v>
-      </c>
-      <c r="P3">
-        <v>63.671898896230452</v>
-      </c>
-      <c r="Q3">
-        <v>55.196734528401159</v>
-      </c>
-      <c r="R3">
-        <v>49.233292822328565</v>
-      </c>
-      <c r="S3">
-        <v>74.562308137640272</v>
-      </c>
-      <c r="T3">
-        <v>64.136790911946861</v>
-      </c>
-      <c r="U3">
-        <v>61.866249933104349</v>
-      </c>
-      <c r="V3">
-        <v>55.701329574225412</v>
-      </c>
-      <c r="W3">
-        <v>50.4911087452125</v>
-      </c>
-      <c r="X3">
-        <v>50.400843669896958</v>
-      </c>
-      <c r="Y3">
-        <v>70.410876706657788</v>
-      </c>
-      <c r="Z3">
-        <v>65.301690054574934</v>
-      </c>
-      <c r="AA3">
-        <v>75.492288917445649</v>
-      </c>
-      <c r="AB3">
-        <v>72.906305684383071</v>
-      </c>
-      <c r="AC3">
-        <v>60.941654774556412</v>
-      </c>
-      <c r="AD3">
-        <v>80.089134578332931</v>
-      </c>
-      <c r="AE3">
-        <v>54.553906047598339</v>
-      </c>
-      <c r="AF3">
-        <v>64.716641055180489</v>
-      </c>
-      <c r="AG3">
-        <v>56.339934265320259</v>
-      </c>
-      <c r="AH3">
-        <v>72.69500258289267</v>
-      </c>
-      <c r="AI3">
-        <v>75.5151194539595</v>
-      </c>
-      <c r="AJ3">
-        <v>65.862280052148378</v>
-      </c>
-      <c r="AK3">
-        <v>68.852251227710497</v>
-      </c>
-      <c r="AL3">
-        <v>70.162060195583322</v>
-      </c>
-      <c r="AM3">
-        <v>74.969337673995213</v>
-      </c>
-      <c r="AN3">
-        <v>50.060005356880957</v>
-      </c>
       <c r="AO3">
-        <v>72.802105971553061</v>
+        <v>72.802105793401395</v>
       </c>
       <c r="AP3">
-        <v>57.628097470207813</v>
+        <v>57.628097435473052</v>
       </c>
       <c r="AQ3">
-        <v>54.754144593630912</v>
+        <v>54.754144567851213</v>
       </c>
       <c r="AR3">
-        <v>83.954395696970636</v>
+        <v>83.954395744013723</v>
       </c>
       <c r="AS3">
-        <v>64.007998814167749</v>
+        <v>64.00799883075355</v>
       </c>
       <c r="AT3">
-        <v>67.204759914459359</v>
+        <v>67.204759841673976</v>
       </c>
       <c r="AU3">
-        <v>56.512899226232236</v>
+        <v>56.512898958465776</v>
       </c>
       <c r="AV3">
-        <v>55.612173345948477</v>
+        <v>55.612173253656287</v>
       </c>
       <c r="AW3">
-        <v>59.673688855208852</v>
+        <v>59.673688051557725</v>
       </c>
       <c r="AX3">
-        <v>62.323002441076085</v>
+        <v>62.323002247094912</v>
       </c>
       <c r="AY3">
-        <v>75.94693418607234</v>
+        <v>75.9469341444279</v>
       </c>
     </row>
   </sheetData>
